--- a/Circuit.xlsx
+++ b/Circuit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\south\Documents\GitHub\Circuit-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA168EE4-6997-43EB-B4A9-BCD3A27947EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9030B09-51E7-4686-9BE5-7E5E93E9D0D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{76592195-0A83-40F5-A006-6AECA9AC5D15}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>4 RAM</t>
+  </si>
+  <si>
+    <t>Example of a computer that adds 3 to a number and stores</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>starting</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Toggle this</t>
   </si>
 </sst>
 </file>
@@ -294,6 +312,67 @@
         <a:xfrm>
           <a:off x="3238499" y="5097780"/>
           <a:ext cx="4981575" cy="2988945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5971A189-6A15-4369-BD10-C8F849B5F564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10401300" y="5029200"/>
+          <a:ext cx="4191000" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -612,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E120F755-0702-4130-AFE3-C64CE0288AAB}">
-  <dimension ref="C3:Q41"/>
+  <dimension ref="C3:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>0</v>
       </c>
@@ -883,7 +962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>0</v>
       </c>
@@ -903,7 +982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>1</v>
       </c>
@@ -923,7 +1002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>1</v>
       </c>
@@ -943,7 +1022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>1</v>
       </c>
@@ -960,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>1</v>
       </c>
@@ -977,92 +1056,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="Q37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E40" s="5" t="s">
         <v>11</v>
       </c>
@@ -1078,7 +1190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E41" s="6" t="s">
         <v>12</v>
       </c>
